--- a/biology/Zoologie/Austrotengella_monteithi/Austrotengella_monteithi.xlsx
+++ b/biology/Zoologie/Austrotengella_monteithi/Austrotengella_monteithi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrotengella monteithi est une espèce d'araignées aranéomorphes de la famille des Zoropsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrotengella monteithi est une espèce d'araignées aranéomorphes de la famille des Zoropsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre sur le plateau Cooran et de Cooloola à l'île Stradbroke-Nord.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre sur le plateau Cooran et de Cooloola à l'île Stradbroke-Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,43 mm de long sur 3,58 mm et l'abdomen 3,69 mm de long sur 2,27 mm. La carapace de la femelle paratype mesure 3,99 mm de long sur 3,65 mm et l'abdomen 4,40 mm de long sur 3,05 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,43 mm de long sur 3,58 mm et l'abdomen 3,69 mm de long sur 2,27 mm. La carapace de la femelle paratype mesure 3,99 mm de long sur 3,65 mm et l'abdomen 4,40 mm de long sur 3,05 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Geoff B. Monteith[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Geoff B. Monteith.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 2012 : Revisions of Australian ground-hunting spiders. V. A new lycosoid genus from eastern Australia (Araneae: Tengellidae). Zootaxa, no 3305, p. 28-52.</t>
         </is>
